--- a/AutoCfg/TestCaseCfg.xlsx
+++ b/AutoCfg/TestCaseCfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BaseCfg" sheetId="1" r:id="rId1"/>
@@ -1358,16 +1358,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1381,22 +1413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,45 +1421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,23 +1444,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,6 +1476,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,13 +1540,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1624,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,91 +1702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,49 +1714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,36 +1743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1791,17 +1761,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,16 +1818,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,10 +1848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1860,137 +1860,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2041,6 +2041,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2434,7 +2443,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="28">
         <v>22</v>
       </c>
       <c r="D2" t="s">
@@ -2448,7 +2457,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -2462,7 +2471,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -2476,7 +2485,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
@@ -2490,7 +2499,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="28">
         <v>40008</v>
       </c>
       <c r="D6" t="s">
@@ -2504,7 +2513,7 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
@@ -2518,7 +2527,7 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -2532,7 +2541,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
@@ -2546,7 +2555,7 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
@@ -2560,7 +2569,7 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
@@ -2574,7 +2583,7 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="29"/>
       <c r="D12" t="s">
         <v>31</v>
       </c>
@@ -2586,7 +2595,7 @@
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="29"/>
       <c r="D13" t="s">
         <v>33</v>
       </c>
@@ -2598,7 +2607,7 @@
       <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D14" t="s">
@@ -2612,7 +2621,7 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
@@ -2626,10 +2635,10 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2640,7 +2649,7 @@
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
@@ -2654,7 +2663,7 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
@@ -2668,7 +2677,7 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D19" t="s">
@@ -2682,7 +2691,7 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="29" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
@@ -2696,7 +2705,7 @@
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="29" t="s">
         <v>52</v>
       </c>
       <c r="D21" t="s">
@@ -2751,55 +2760,55 @@
       <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="23">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
+        <v>1</v>
+      </c>
+      <c r="H2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="26">
         <v>111111</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2823,26 +2832,26 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23">
-        <v>1</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2888,26 +2897,26 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2920,26 +2929,26 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
         <v>1</v>
       </c>
     </row>
@@ -2955,26 +2964,26 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3028,26 +3037,26 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23">
-        <v>1</v>
-      </c>
-      <c r="H21" s="23">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
+      <c r="H21" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3101,26 +3110,26 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23">
-        <v>1</v>
-      </c>
-      <c r="H27" s="23">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3155,26 +3164,26 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23">
-        <v>1</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26">
+        <v>1</v>
+      </c>
+      <c r="H31" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3220,28 +3229,28 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="26">
         <v>400</v>
       </c>
-      <c r="G36" s="23">
-        <v>1</v>
-      </c>
-      <c r="H36" s="23">
+      <c r="G36" s="26">
+        <v>1</v>
+      </c>
+      <c r="H36" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3293,26 +3302,26 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23">
-        <v>1</v>
-      </c>
-      <c r="H41" s="23">
+      <c r="F41" s="26"/>
+      <c r="G41" s="26">
+        <v>1</v>
+      </c>
+      <c r="H41" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3383,28 +3392,28 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="27">
         <v>264</v>
       </c>
-      <c r="G48" s="23">
-        <v>1</v>
-      </c>
-      <c r="H48" s="23">
+      <c r="G48" s="26">
+        <v>1</v>
+      </c>
+      <c r="H48" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3440,7 +3449,7 @@
       <c r="E51" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="27">
         <v>300</v>
       </c>
     </row>
@@ -3467,7 +3476,7 @@
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="21" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3522,59 +3531,59 @@
       <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="60" customHeight="1" spans="1:9">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="22" customFormat="1" ht="60" customHeight="1" spans="1:9">
+      <c r="A2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" ht="71.25" spans="1:9">
-      <c r="A3" s="19" t="s">
+    <row r="3" s="22" customFormat="1" ht="71.25" spans="1:9">
+      <c r="A3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="22">
         <v>123456</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3589,29 +3598,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" ht="57" spans="1:9">
-      <c r="A5" s="19" t="s">
+    <row r="5" s="22" customFormat="1" ht="57" spans="1:9">
+      <c r="A5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3641,36 +3650,36 @@
       <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" ht="85.5" spans="1:9">
-      <c r="A9" s="19" t="s">
+    <row r="9" s="22" customFormat="1" ht="85.5" spans="1:9">
+      <c r="A9" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22" t="s">
+      <c r="G9" s="22">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3713,29 +3722,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="99.75" spans="1:9">
-      <c r="A13" s="19" t="s">
+    <row r="13" s="22" customFormat="1" ht="99.75" spans="1:9">
+      <c r="A13" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="G13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3775,29 +3784,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" ht="57" spans="1:9">
-      <c r="A17" s="19" t="s">
+    <row r="17" s="22" customFormat="1" ht="57" spans="1:9">
+      <c r="A17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22" t="s">
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3809,29 +3818,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" ht="85.5" spans="1:9">
-      <c r="A19" s="19" t="s">
+    <row r="19" s="22" customFormat="1" ht="85.5" spans="1:9">
+      <c r="A19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="22" t="s">
+      <c r="G19" s="22">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3846,32 +3855,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" s="19" customFormat="1" ht="99.75" spans="1:9">
-      <c r="A21" s="19" t="s">
+    <row r="21" s="22" customFormat="1" ht="99.75" spans="1:9">
+      <c r="A21" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="22">
         <v>268</v>
       </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="22" t="s">
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3924,29 +3933,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="1" ht="114" spans="1:9">
-      <c r="A27" s="19" t="s">
+    <row r="27" s="22" customFormat="1" ht="114" spans="1:9">
+      <c r="A27" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="22" t="s">
+      <c r="G27" s="22">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1</v>
+      </c>
+      <c r="I27" s="25" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4002,29 +4011,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" s="19" customFormat="1" ht="85.5" spans="1:9">
-      <c r="A33" s="19" t="s">
+    <row r="33" s="22" customFormat="1" ht="85.5" spans="1:9">
+      <c r="A33" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
-      <c r="I33" s="22" t="s">
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22">
+        <v>1</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4061,29 +4070,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="1" ht="99.75" spans="1:9">
-      <c r="A37" s="19" t="s">
+    <row r="37" s="22" customFormat="1" ht="99.75" spans="1:9">
+      <c r="A37" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
-      <c r="I37" s="22" t="s">
+      <c r="G37" s="22">
+        <v>1</v>
+      </c>
+      <c r="H37" s="22">
+        <v>1</v>
+      </c>
+      <c r="I37" s="25" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4142,32 +4151,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" s="19" customFormat="1" ht="85.5" spans="1:9">
-      <c r="A43" s="19" t="s">
+    <row r="43" s="22" customFormat="1" ht="85.5" spans="1:9">
+      <c r="A43" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="22">
         <v>268</v>
       </c>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
-      <c r="H43" s="19">
-        <v>1</v>
-      </c>
-      <c r="I43" s="22" t="s">
+      <c r="G43" s="22">
+        <v>1</v>
+      </c>
+      <c r="H43" s="22">
+        <v>1</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4221,29 +4230,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" s="19" customFormat="1" ht="128.25" spans="1:9">
-      <c r="A48" s="19" t="s">
+    <row r="48" s="22" customFormat="1" ht="128.25" spans="1:9">
+      <c r="A48" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="19">
-        <v>1</v>
-      </c>
-      <c r="H48" s="19">
-        <v>1</v>
-      </c>
-      <c r="I48" s="22" t="s">
+      <c r="G48" s="22">
+        <v>1</v>
+      </c>
+      <c r="H48" s="22">
+        <v>1</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4306,39 +4315,39 @@
       <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="21" t="s">
         <v>171</v>
       </c>
       <c r="E54" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="55" s="19" customFormat="1" ht="99.75" spans="1:9">
-      <c r="A55" s="19" t="s">
+    <row r="55" s="22" customFormat="1" ht="99.75" spans="1:9">
+      <c r="A55" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="22">
         <v>268</v>
       </c>
-      <c r="G55" s="19">
-        <v>1</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="22" t="s">
+      <c r="G55" s="22">
+        <v>1</v>
+      </c>
+      <c r="H55" s="22">
+        <v>1</v>
+      </c>
+      <c r="I55" s="25" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4396,36 +4405,36 @@
       <c r="C60" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="21" t="s">
         <v>171</v>
       </c>
       <c r="E60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" s="19" customFormat="1" ht="99.75" spans="1:9">
-      <c r="A61" s="21" t="s">
+    <row r="61" s="22" customFormat="1" ht="99.75" spans="1:9">
+      <c r="A61" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="19">
-        <v>1</v>
-      </c>
-      <c r="H61" s="19">
-        <v>1</v>
-      </c>
-      <c r="I61" s="22" t="s">
+      <c r="G61" s="22">
+        <v>1</v>
+      </c>
+      <c r="H61" s="22">
+        <v>1</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4473,29 +4482,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" s="19" customFormat="1" ht="142.5" spans="1:9">
-      <c r="A66" s="19" t="s">
+    <row r="66" s="22" customFormat="1" ht="142.5" spans="1:9">
+      <c r="A66" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G66" s="19">
-        <v>1</v>
-      </c>
-      <c r="H66" s="19">
-        <v>1</v>
-      </c>
-      <c r="I66" s="22" t="s">
+      <c r="G66" s="22">
+        <v>1</v>
+      </c>
+      <c r="H66" s="22">
+        <v>1</v>
+      </c>
+      <c r="I66" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4511,7 +4520,7 @@
       </c>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="21" t="s">
         <v>186</v>
       </c>
       <c r="E68" t="s">
@@ -4545,29 +4554,29 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" s="19" customFormat="1" ht="85.5" spans="1:9">
-      <c r="A72" s="21" t="s">
+    <row r="72" s="22" customFormat="1" ht="85.5" spans="1:9">
+      <c r="A72" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G72" s="19">
-        <v>1</v>
-      </c>
-      <c r="H72" s="19">
-        <v>1</v>
-      </c>
-      <c r="I72" s="22" t="s">
+      <c r="G72" s="22">
+        <v>1</v>
+      </c>
+      <c r="H72" s="22">
+        <v>1</v>
+      </c>
+      <c r="I72" s="25" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4604,29 +4613,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" s="19" customFormat="1" ht="99.75" spans="1:9">
-      <c r="A76" s="21" t="s">
+    <row r="76" s="22" customFormat="1" ht="99.75" spans="1:9">
+      <c r="A76" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G76" s="19">
-        <v>1</v>
-      </c>
-      <c r="H76" s="19">
-        <v>1</v>
-      </c>
-      <c r="I76" s="22" t="s">
+      <c r="G76" s="22">
+        <v>1</v>
+      </c>
+      <c r="H76" s="22">
+        <v>1</v>
+      </c>
+      <c r="I76" s="25" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4668,34 +4677,34 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" s="19" customFormat="1" spans="1:8">
-      <c r="A81" s="21" t="s">
+    <row r="81" s="22" customFormat="1" spans="1:8">
+      <c r="A81" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G81" s="19">
-        <v>1</v>
-      </c>
-      <c r="H81" s="19">
+      <c r="G81" s="22">
+        <v>1</v>
+      </c>
+      <c r="H81" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:5">
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="21" t="s">
         <v>162</v>
       </c>
       <c r="E82" t="s">
@@ -4703,10 +4712,10 @@
       </c>
     </row>
     <row r="83" spans="3:5">
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E83" t="s">
@@ -4725,7 +4734,7 @@
       <c r="C85" t="s">
         <v>194</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="21" t="s">
         <v>195</v>
       </c>
       <c r="E85" t="s">
@@ -4793,7 +4802,7 @@
       <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -4810,7 +4819,7 @@
       <c r="C3" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
       <c r="F3">
@@ -4821,7 +4830,7 @@
       <c r="C4" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
       <c r="E4" t="s">
@@ -4838,7 +4847,7 @@
       <c r="C5" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="20">
         <v>2</v>
       </c>
       <c r="F5">
@@ -4849,7 +4858,7 @@
       <c r="C6" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="20">
         <v>4</v>
       </c>
       <c r="F6">
@@ -4863,7 +4872,7 @@
       <c r="C7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="20">
         <v>4</v>
       </c>
       <c r="F7">
@@ -4874,7 +4883,7 @@
       <c r="C8" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="20">
         <v>8</v>
       </c>
       <c r="F8">
@@ -4888,7 +4897,7 @@
       <c r="C9" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="20">
         <v>8</v>
       </c>
       <c r="F9">
@@ -4899,7 +4908,7 @@
       <c r="C10" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="20">
         <v>16</v>
       </c>
       <c r="F10">
@@ -4910,7 +4919,7 @@
       <c r="C11" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="20">
         <v>26</v>
       </c>
       <c r="F11">
@@ -4921,7 +4930,7 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="20">
         <v>32</v>
       </c>
       <c r="F12">
@@ -4932,7 +4941,7 @@
       <c r="C13" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="20">
         <v>32</v>
       </c>
       <c r="F13">
@@ -4943,7 +4952,7 @@
       <c r="C14" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="20">
         <v>64</v>
       </c>
       <c r="F14">
@@ -4954,7 +4963,7 @@
       <c r="C15" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="20">
         <v>64</v>
       </c>
       <c r="F15">
@@ -4965,7 +4974,7 @@
       <c r="C16" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="20">
         <v>128</v>
       </c>
       <c r="F16">
@@ -4976,7 +4985,7 @@
       <c r="C17" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="20">
         <v>128</v>
       </c>
       <c r="F17">
@@ -4990,7 +4999,7 @@
       <c r="C18" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="20">
         <v>1</v>
       </c>
       <c r="F18">
@@ -5001,7 +5010,7 @@
       <c r="C19" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="20">
         <v>1</v>
       </c>
       <c r="F19">
@@ -5012,7 +5021,7 @@
       <c r="C20" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="20">
         <v>2</v>
       </c>
       <c r="F20">
@@ -5023,7 +5032,7 @@
       <c r="C21" t="s">
         <v>228</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="20">
         <v>2</v>
       </c>
       <c r="F21">
@@ -5034,7 +5043,7 @@
       <c r="C22" t="s">
         <v>229</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="20">
         <v>4</v>
       </c>
       <c r="F22">
@@ -5045,7 +5054,7 @@
       <c r="C23" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="20">
         <v>4</v>
       </c>
       <c r="F23">
@@ -5056,7 +5065,7 @@
       <c r="C24" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="20">
         <v>8</v>
       </c>
       <c r="F24">
@@ -5067,7 +5076,7 @@
       <c r="C25" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="20">
         <v>8</v>
       </c>
       <c r="F25">
@@ -5078,7 +5087,7 @@
       <c r="C26" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="20">
         <v>16</v>
       </c>
       <c r="F26">
@@ -5089,7 +5098,7 @@
       <c r="C27" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="20">
         <v>26</v>
       </c>
       <c r="F27">
@@ -5100,7 +5109,7 @@
       <c r="C28" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="20">
         <v>32</v>
       </c>
       <c r="F28">
@@ -5111,7 +5120,7 @@
       <c r="C29" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="20">
         <v>32</v>
       </c>
       <c r="F29">
@@ -5122,7 +5131,7 @@
       <c r="C30" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="20">
         <v>64</v>
       </c>
       <c r="F30">
@@ -5133,7 +5142,7 @@
       <c r="C31" t="s">
         <v>238</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="20">
         <v>64</v>
       </c>
       <c r="F31">
@@ -5144,7 +5153,7 @@
       <c r="C32" t="s">
         <v>239</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="20">
         <v>128</v>
       </c>
       <c r="F32">
@@ -5155,7 +5164,7 @@
       <c r="C33" t="s">
         <v>240</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="20">
         <v>128</v>
       </c>
       <c r="F33">
@@ -5172,7 +5181,7 @@
       <c r="C34" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="20">
         <v>1</v>
       </c>
       <c r="E34" t="s">
@@ -5189,7 +5198,7 @@
       <c r="C35" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="20">
         <v>1</v>
       </c>
       <c r="F35">
@@ -5200,7 +5209,7 @@
       <c r="C36" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="20">
         <v>2</v>
       </c>
       <c r="E36" t="s">
@@ -5217,7 +5226,7 @@
       <c r="C37" t="s">
         <v>210</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="20">
         <v>2</v>
       </c>
       <c r="F37">
@@ -5228,7 +5237,7 @@
       <c r="C38" t="s">
         <v>211</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="20">
         <v>4</v>
       </c>
       <c r="E38" t="s">
@@ -5245,7 +5254,7 @@
       <c r="C39" t="s">
         <v>213</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="20">
         <v>4</v>
       </c>
       <c r="F39">
@@ -5256,7 +5265,7 @@
       <c r="C40" t="s">
         <v>214</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="20">
         <v>8</v>
       </c>
       <c r="E40" t="s">
@@ -5273,7 +5282,7 @@
       <c r="C41" t="s">
         <v>216</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="20">
         <v>8</v>
       </c>
       <c r="F41">
@@ -5284,7 +5293,7 @@
       <c r="C42" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="20">
         <v>16</v>
       </c>
       <c r="F42">
@@ -5298,7 +5307,7 @@
       <c r="C43" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="20">
         <v>26</v>
       </c>
       <c r="F43">
@@ -5309,7 +5318,7 @@
       <c r="C44" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="20">
         <v>32</v>
       </c>
       <c r="F44">
@@ -5323,7 +5332,7 @@
       <c r="C45" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="20">
         <v>32</v>
       </c>
       <c r="F45">
@@ -5334,7 +5343,7 @@
       <c r="C46" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="20">
         <v>64</v>
       </c>
       <c r="F46">
@@ -5345,7 +5354,7 @@
       <c r="C47" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="20">
         <v>64</v>
       </c>
       <c r="F47">
@@ -5356,7 +5365,7 @@
       <c r="C48" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="20">
         <v>128</v>
       </c>
       <c r="F48">
@@ -5367,7 +5376,7 @@
       <c r="C49" t="s">
         <v>224</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="20">
         <v>128</v>
       </c>
       <c r="F49">
@@ -5381,7 +5390,7 @@
       <c r="C50" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="20">
         <v>1</v>
       </c>
       <c r="F50">
@@ -5392,7 +5401,7 @@
       <c r="C51" t="s">
         <v>226</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="20">
         <v>1</v>
       </c>
       <c r="F51">
@@ -5403,7 +5412,7 @@
       <c r="C52" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="20">
         <v>2</v>
       </c>
       <c r="F52">
@@ -5414,7 +5423,7 @@
       <c r="C53" t="s">
         <v>228</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="20">
         <v>2</v>
       </c>
       <c r="F53">
@@ -5425,7 +5434,7 @@
       <c r="C54" t="s">
         <v>229</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="20">
         <v>4</v>
       </c>
       <c r="F54">
@@ -5436,7 +5445,7 @@
       <c r="C55" t="s">
         <v>230</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="20">
         <v>4</v>
       </c>
       <c r="F55">
@@ -5447,7 +5456,7 @@
       <c r="C56" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="20">
         <v>8</v>
       </c>
       <c r="F56">
@@ -5458,7 +5467,7 @@
       <c r="C57" t="s">
         <v>232</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="20">
         <v>8</v>
       </c>
       <c r="F57">
@@ -5469,7 +5478,7 @@
       <c r="C58" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="20">
         <v>16</v>
       </c>
       <c r="F58">
@@ -5480,7 +5489,7 @@
       <c r="C59" t="s">
         <v>234</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="20">
         <v>26</v>
       </c>
       <c r="F59">
@@ -5491,7 +5500,7 @@
       <c r="C60" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="20">
         <v>32</v>
       </c>
       <c r="F60">
@@ -5502,7 +5511,7 @@
       <c r="C61" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="20">
         <v>32</v>
       </c>
       <c r="F61">
@@ -5513,7 +5522,7 @@
       <c r="C62" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="20">
         <v>64</v>
       </c>
       <c r="F62">
@@ -5524,7 +5533,7 @@
       <c r="C63" t="s">
         <v>238</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="20">
         <v>64</v>
       </c>
       <c r="F63">
@@ -5535,7 +5544,7 @@
       <c r="C64" t="s">
         <v>239</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="20">
         <v>128</v>
       </c>
       <c r="F64">
@@ -5546,7 +5555,7 @@
       <c r="C65" t="s">
         <v>240</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="20">
         <v>128</v>
       </c>
       <c r="F65">
@@ -5563,13 +5572,13 @@
       <c r="C66" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="20">
         <v>1</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="21" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5577,7 +5586,7 @@
       <c r="C67" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="20">
         <v>1</v>
       </c>
       <c r="F67">
@@ -5588,7 +5597,7 @@
       <c r="C68" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="20">
         <v>2</v>
       </c>
       <c r="F68">
@@ -5602,7 +5611,7 @@
       <c r="C69" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="20">
         <v>2</v>
       </c>
       <c r="F69">
@@ -5613,7 +5622,7 @@
       <c r="C70" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="20">
         <v>4</v>
       </c>
       <c r="F70">
@@ -5627,7 +5636,7 @@
       <c r="C71" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="20">
         <v>4</v>
       </c>
       <c r="F71">
@@ -5638,7 +5647,7 @@
       <c r="C72" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="20">
         <v>8</v>
       </c>
       <c r="F72">
@@ -5652,7 +5661,7 @@
       <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="20">
         <v>8</v>
       </c>
       <c r="F73">
@@ -5663,7 +5672,7 @@
       <c r="C74" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="20">
         <v>16</v>
       </c>
       <c r="F74">
@@ -5677,7 +5686,7 @@
       <c r="C75" t="s">
         <v>218</v>
       </c>
-      <c r="D75" s="17">
+      <c r="D75" s="20">
         <v>26</v>
       </c>
       <c r="F75">
@@ -5688,7 +5697,7 @@
       <c r="C76" t="s">
         <v>219</v>
       </c>
-      <c r="D76" s="17">
+      <c r="D76" s="20">
         <v>32</v>
       </c>
       <c r="F76">
@@ -5702,7 +5711,7 @@
       <c r="C77" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="20">
         <v>32</v>
       </c>
       <c r="F77">
@@ -5713,7 +5722,7 @@
       <c r="C78" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="20">
         <v>64</v>
       </c>
       <c r="F78">
@@ -5724,7 +5733,7 @@
       <c r="C79" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="20">
         <v>64</v>
       </c>
       <c r="F79">
@@ -5735,7 +5744,7 @@
       <c r="C80" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="20">
         <v>128</v>
       </c>
       <c r="F80">
@@ -5746,7 +5755,7 @@
       <c r="C81" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="17">
+      <c r="D81" s="20">
         <v>128</v>
       </c>
       <c r="F81">
@@ -5760,7 +5769,7 @@
       <c r="C82" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="20">
         <v>1</v>
       </c>
       <c r="F82">
@@ -5771,7 +5780,7 @@
       <c r="C83" t="s">
         <v>226</v>
       </c>
-      <c r="D83" s="17">
+      <c r="D83" s="20">
         <v>1</v>
       </c>
       <c r="F83">
@@ -5782,7 +5791,7 @@
       <c r="C84" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="20">
         <v>2</v>
       </c>
       <c r="F84">
@@ -5793,7 +5802,7 @@
       <c r="C85" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="17">
+      <c r="D85" s="20">
         <v>2</v>
       </c>
       <c r="F85">
@@ -5804,7 +5813,7 @@
       <c r="C86" t="s">
         <v>229</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D86" s="20">
         <v>4</v>
       </c>
       <c r="F86">
@@ -5815,7 +5824,7 @@
       <c r="C87" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="20">
         <v>4</v>
       </c>
       <c r="F87">
@@ -5826,7 +5835,7 @@
       <c r="C88" t="s">
         <v>231</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="20">
         <v>8</v>
       </c>
       <c r="F88">
@@ -5837,7 +5846,7 @@
       <c r="C89" t="s">
         <v>232</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89" s="20">
         <v>8</v>
       </c>
       <c r="F89">
@@ -5848,7 +5857,7 @@
       <c r="C90" t="s">
         <v>233</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="20">
         <v>16</v>
       </c>
       <c r="F90">
@@ -5859,7 +5868,7 @@
       <c r="C91" t="s">
         <v>234</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D91" s="20">
         <v>26</v>
       </c>
       <c r="F91">
@@ -5870,7 +5879,7 @@
       <c r="C92" t="s">
         <v>235</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="20">
         <v>32</v>
       </c>
       <c r="F92">
@@ -5881,7 +5890,7 @@
       <c r="C93" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="20">
         <v>32</v>
       </c>
       <c r="F93">
@@ -5892,7 +5901,7 @@
       <c r="C94" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="20">
         <v>64</v>
       </c>
       <c r="F94">
@@ -5903,7 +5912,7 @@
       <c r="C95" t="s">
         <v>238</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D95" s="20">
         <v>64</v>
       </c>
       <c r="F95">
@@ -5914,7 +5923,7 @@
       <c r="C96" t="s">
         <v>239</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="20">
         <v>128</v>
       </c>
       <c r="F96">
@@ -5925,7 +5934,7 @@
       <c r="C97" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D97" s="20">
         <v>128</v>
       </c>
       <c r="F97">
@@ -5941,10 +5950,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6204,7 +6213,7 @@
         <v>313</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="31" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6222,7 +6231,7 @@
         <v>317</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="31" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6240,7 +6249,7 @@
         <v>321</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="32" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6249,7 +6258,7 @@
         <v>323</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="31" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6258,7 +6267,7 @@
         <v>325</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="31" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6276,7 +6285,7 @@
         <v>329</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="31" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6535,6 +6544,81 @@
       <c r="C64" s="3" t="s">
         <v>387</v>
       </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="17"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="17"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="17"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="17"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="17"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="17"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="17"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="17"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="17"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="17"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="17"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="17"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="17"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="17"/>
     </row>
   </sheetData>
   <protectedRanges>
